--- a/New Functions in Excel 2019/New Functions (Exercise).xlsx
+++ b/New Functions in Excel 2019/New Functions (Exercise).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjenn\Google Drive\Apttus Laptop (YouTube Folder)\New Functions in Excel 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JieJenn\Documents\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B750AB8B-B45B-49A8-B1AA-06AB6DA4827B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AC3629-8E78-421A-A74B-3DC1F63ECA72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20412" windowHeight="7692" activeTab="5" xr2:uid="{3DD1B0DA-D494-4073-9905-03476B8E6911}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="7695" xr2:uid="{3DD1B0DA-D494-4073-9905-03476B8E6911}"/>
   </bookViews>
   <sheets>
     <sheet name="CONCAT" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="59">
   <si>
     <t>Excel</t>
   </si>
@@ -206,6 +206,12 @@
   </si>
   <si>
     <t>Mexico</t>
+  </si>
+  <si>
+    <t>Lowest Grade From Each Group</t>
+  </si>
+  <si>
+    <t>Lowest Grade Based On Group, Class, and Level</t>
   </si>
 </sst>
 </file>
@@ -365,6 +371,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -373,9 +382,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -699,18 +705,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF479C4-D686-4ADA-A1BD-E3B6EBD002DC}">
   <dimension ref="B2:K15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
-    <col min="11" max="11" width="40.88671875" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="40.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>22</v>
       </c>
@@ -718,21 +724,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="18" t="s">
         <v>7</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -752,7 +758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H5" s="3" t="s">
         <v>10</v>
       </c>
@@ -760,7 +766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
@@ -771,7 +777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H7" s="3" t="s">
         <v>14</v>
       </c>
@@ -779,7 +785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H8" s="3" t="s">
         <v>16</v>
       </c>
@@ -787,7 +793,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="H9" s="3" t="s">
         <v>18</v>
       </c>
@@ -795,22 +801,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
     </row>
   </sheetData>
@@ -823,22 +829,22 @@
   <dimension ref="B2:I16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
-    <col min="4" max="4" width="3.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
     <col min="7" max="7" width="2" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>22</v>
       </c>
@@ -846,7 +852,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
@@ -863,7 +869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="9">
         <v>91</v>
       </c>
@@ -876,7 +882,7 @@
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <v>58</v>
       </c>
@@ -885,7 +891,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
         <v>72</v>
       </c>
@@ -894,7 +900,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
         <v>71</v>
       </c>
@@ -903,7 +909,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
         <v>79</v>
       </c>
@@ -912,7 +918,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
         <v>68</v>
       </c>
@@ -921,7 +927,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
         <v>96</v>
       </c>
@@ -930,37 +936,37 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="9">
         <v>65</v>
       </c>
       <c r="C11" s="9"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>93</v>
       </c>
       <c r="C12" s="9"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9">
         <v>69</v>
       </c>
       <c r="C13" s="9"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="9">
         <v>63</v>
       </c>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="9">
         <v>80</v>
       </c>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="9">
         <v>99</v>
       </c>
@@ -979,21 +985,21 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" customWidth="1"/>
-    <col min="16" max="16" width="13.109375" customWidth="1"/>
-    <col min="17" max="17" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>22</v>
       </c>
@@ -1007,7 +1013,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
@@ -1045,7 +1051,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="12">
         <v>97</v>
       </c>
@@ -1079,7 +1085,7 @@
       </c>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <v>62</v>
       </c>
@@ -1113,7 +1119,7 @@
       </c>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="12">
         <v>81</v>
       </c>
@@ -1147,7 +1153,7 @@
       </c>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <v>59</v>
       </c>
@@ -1177,7 +1183,7 @@
       </c>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
         <v>74</v>
       </c>
@@ -1207,7 +1213,7 @@
       </c>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
         <v>91</v>
       </c>
@@ -1237,7 +1243,7 @@
       </c>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
         <v>79</v>
       </c>
@@ -1257,7 +1263,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
         <v>94</v>
       </c>
@@ -1277,7 +1283,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
         <v>95</v>
       </c>
@@ -1300,7 +1306,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
         <v>80</v>
       </c>
@@ -1332,7 +1338,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
         <v>50</v>
       </c>
@@ -1362,7 +1368,7 @@
       </c>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="I15" s="12">
         <v>94</v>
       </c>
@@ -1386,7 +1392,7 @@
       </c>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="I16" s="12">
         <v>63</v>
       </c>
@@ -1410,7 +1416,7 @@
       </c>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I17" s="12">
         <v>86</v>
       </c>
@@ -1424,7 +1430,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I18" s="12">
         <v>97</v>
       </c>
@@ -1438,7 +1444,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I19" s="12">
         <v>89</v>
       </c>
@@ -1452,7 +1458,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I20" s="12">
         <v>86</v>
       </c>
@@ -1466,7 +1472,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
@@ -1481,39 +1487,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F698D5D5-7520-40E4-A514-A13D691C67AA}">
   <dimension ref="B2:Q21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P3" activeCellId="1" sqref="P13:Q13 P3:Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" customWidth="1"/>
-    <col min="16" max="16" width="13.109375" customWidth="1"/>
-    <col min="17" max="17" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>23</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
@@ -1544,14 +1550,14 @@
       <c r="O3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="12">
         <v>97</v>
       </c>
@@ -1585,7 +1591,7 @@
       </c>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
         <v>62</v>
       </c>
@@ -1619,7 +1625,7 @@
       </c>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="12">
         <v>81</v>
       </c>
@@ -1653,7 +1659,7 @@
       </c>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <v>59</v>
       </c>
@@ -1683,7 +1689,7 @@
       </c>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
         <v>74</v>
       </c>
@@ -1713,7 +1719,7 @@
       </c>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
         <v>91</v>
       </c>
@@ -1743,7 +1749,7 @@
       </c>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
         <v>79</v>
       </c>
@@ -1763,7 +1769,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
         <v>94</v>
       </c>
@@ -1783,7 +1789,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
         <v>95</v>
       </c>
@@ -1806,7 +1812,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
         <v>80</v>
       </c>
@@ -1831,14 +1837,14 @@
       <c r="O13" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="P13" s="13" t="s">
+      <c r="P13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" s="13" t="s">
+      <c r="Q13" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
         <v>50</v>
       </c>
@@ -1868,7 +1874,7 @@
       </c>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="I15" s="12">
         <v>94</v>
       </c>
@@ -1892,7 +1898,7 @@
       </c>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="I16" s="12">
         <v>63</v>
       </c>
@@ -1916,7 +1922,7 @@
       </c>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I17" s="12">
         <v>86</v>
       </c>
@@ -1930,7 +1936,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I18" s="12">
         <v>97</v>
       </c>
@@ -1944,7 +1950,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I19" s="12">
         <v>89</v>
       </c>
@@ -1958,7 +1964,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I20" s="12">
         <v>86</v>
       </c>
@@ -1972,7 +1978,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="9:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:12" x14ac:dyDescent="0.25">
       <c r="I21" s="15"/>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
@@ -1991,14 +1997,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>25</v>
       </c>
@@ -2006,25 +2012,25 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>5</v>
       </c>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>7</v>
       </c>
@@ -2039,21 +2045,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63EFCFA2-060E-4059-A7E9-C3D5F8CCC015}">
   <dimension ref="B2:I12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" customWidth="1"/>
-    <col min="4" max="4" width="33.5546875" customWidth="1"/>
-    <col min="8" max="8" width="2.88671875" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" customWidth="1"/>
+    <col min="8" max="8" width="2.85546875" customWidth="1"/>
     <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>22</v>
       </c>
@@ -2061,28 +2067,28 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="18" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="19"/>
       <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
@@ -2091,11 +2097,11 @@
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="20"/>
       <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
@@ -2104,19 +2110,19 @@
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="20"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="20"/>
+      <c r="D7" s="21"/>
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
@@ -2124,7 +2130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>52</v>
       </c>
@@ -2135,7 +2141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>53</v>
       </c>
@@ -2146,7 +2152,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>54</v>
       </c>
@@ -2157,12 +2163,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>56</v>
       </c>
